--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H2">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N2">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q2">
-        <v>138.9173388952843</v>
+        <v>157.5254202578583</v>
       </c>
       <c r="R2">
-        <v>138.9173388952843</v>
+        <v>1417.728782320725</v>
       </c>
       <c r="S2">
-        <v>0.06669438706177777</v>
+        <v>0.06459281961016566</v>
       </c>
       <c r="T2">
-        <v>0.06669438706177777</v>
+        <v>0.06459281961016568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H3">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N3">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q3">
-        <v>38.33682460471261</v>
+        <v>42.93709615214444</v>
       </c>
       <c r="R3">
-        <v>38.33682460471261</v>
+        <v>386.4338653693</v>
       </c>
       <c r="S3">
-        <v>0.01840555714095228</v>
+        <v>0.0176062257240761</v>
       </c>
       <c r="T3">
-        <v>0.01840555714095228</v>
+        <v>0.0176062257240761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H4">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N4">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q4">
-        <v>75.89742213380609</v>
+        <v>93.16566643906279</v>
       </c>
       <c r="R4">
-        <v>75.89742213380609</v>
+        <v>838.4909979515651</v>
       </c>
       <c r="S4">
-        <v>0.03643844669813953</v>
+        <v>0.03820229824690178</v>
       </c>
       <c r="T4">
-        <v>0.03643844669813953</v>
+        <v>0.03820229824690179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H5">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N5">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q5">
-        <v>13.0266638325513</v>
+        <v>21.40123461724111</v>
       </c>
       <c r="R5">
-        <v>13.0266638325513</v>
+        <v>192.61111155517</v>
       </c>
       <c r="S5">
-        <v>0.006254117496641238</v>
+        <v>0.008775511182915426</v>
       </c>
       <c r="T5">
-        <v>0.006254117496641238</v>
+        <v>0.008775511182915427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H6">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J6">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N6">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q6">
-        <v>555.9867582891707</v>
+        <v>570.01015915432</v>
       </c>
       <c r="R6">
-        <v>555.9867582891707</v>
+        <v>5130.09143238888</v>
       </c>
       <c r="S6">
-        <v>0.2669299336817327</v>
+        <v>0.2337309326072411</v>
       </c>
       <c r="T6">
-        <v>0.2669299336817327</v>
+        <v>0.2337309326072411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H7">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J7">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N7">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q7">
-        <v>153.4348916022767</v>
+        <v>155.3690888190933</v>
       </c>
       <c r="R7">
-        <v>153.4348916022767</v>
+        <v>1398.32179937184</v>
       </c>
       <c r="S7">
-        <v>0.07366428216004024</v>
+        <v>0.06370862246016994</v>
       </c>
       <c r="T7">
-        <v>0.07366428216004024</v>
+        <v>0.06370862246016995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H8">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J8">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N8">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q8">
-        <v>303.7631013540243</v>
+        <v>337.1225816615413</v>
       </c>
       <c r="R8">
-        <v>303.7631013540243</v>
+        <v>3034.103234953872</v>
       </c>
       <c r="S8">
-        <v>0.145837042502396</v>
+        <v>0.1382360895665725</v>
       </c>
       <c r="T8">
-        <v>0.145837042502396</v>
+        <v>0.1382360895665726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H9">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J9">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N9">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q9">
-        <v>52.13641906171614</v>
+        <v>77.44096876747734</v>
       </c>
       <c r="R9">
-        <v>52.13641906171614</v>
+        <v>696.9687189072961</v>
       </c>
       <c r="S9">
-        <v>0.02503075959105622</v>
+        <v>0.03175443377866247</v>
       </c>
       <c r="T9">
-        <v>0.02503075959105622</v>
+        <v>0.03175443377866247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H10">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N10">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q10">
-        <v>218.3216471064525</v>
+        <v>276.87351216486</v>
       </c>
       <c r="R10">
-        <v>218.3216471064525</v>
+        <v>2491.86160948374</v>
       </c>
       <c r="S10">
-        <v>0.1048164941243118</v>
+        <v>0.1135311418107812</v>
       </c>
       <c r="T10">
-        <v>0.1048164941243118</v>
+        <v>0.1135311418107812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H11">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N11">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q11">
-        <v>60.24992098964078</v>
+        <v>75.46810282648001</v>
       </c>
       <c r="R11">
-        <v>60.24992098964078</v>
+        <v>679.21292543832</v>
       </c>
       <c r="S11">
-        <v>0.02892606195079538</v>
+        <v>0.03094546609818727</v>
       </c>
       <c r="T11">
-        <v>0.02892606195079538</v>
+        <v>0.03094546609818727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H12">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N12">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q12">
-        <v>119.2799282159929</v>
+        <v>163.752016899484</v>
       </c>
       <c r="R12">
-        <v>119.2799282159929</v>
+        <v>1473.768152095356</v>
       </c>
       <c r="S12">
-        <v>0.05726644178762445</v>
+        <v>0.06714601663068101</v>
       </c>
       <c r="T12">
-        <v>0.05726644178762445</v>
+        <v>0.06714601663068102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H13">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N13">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q13">
-        <v>20.47262585679429</v>
+        <v>37.61573835791201</v>
       </c>
       <c r="R13">
-        <v>20.47262585679429</v>
+        <v>338.5416452212081</v>
       </c>
       <c r="S13">
-        <v>0.00982893311894811</v>
+        <v>0.01542421914049514</v>
       </c>
       <c r="T13">
-        <v>0.00982893311894811</v>
+        <v>0.01542421914049514</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H14">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N14">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O14">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P14">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q14">
-        <v>173.8281107220062</v>
+        <v>215.046363857125</v>
       </c>
       <c r="R14">
-        <v>173.8281107220062</v>
+        <v>1935.417274714125</v>
       </c>
       <c r="S14">
-        <v>0.08345509200583021</v>
+        <v>0.08817910763677131</v>
       </c>
       <c r="T14">
-        <v>0.08345509200583021</v>
+        <v>0.08817910763677132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H15">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N15">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O15">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P15">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q15">
-        <v>47.97110170056917</v>
+        <v>58.61572301783333</v>
       </c>
       <c r="R15">
-        <v>47.97110170056917</v>
+        <v>527.5415071605</v>
       </c>
       <c r="S15">
-        <v>0.02303098554896284</v>
+        <v>0.0240351989984389</v>
       </c>
       <c r="T15">
-        <v>0.02303098554896284</v>
+        <v>0.02403519899843891</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H16">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N16">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O16">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P16">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q16">
-        <v>94.97090574226328</v>
+        <v>127.1854267790583</v>
       </c>
       <c r="R16">
-        <v>94.97090574226328</v>
+        <v>1144.668841011525</v>
       </c>
       <c r="S16">
-        <v>0.04559564988468934</v>
+        <v>0.0521519975349618</v>
       </c>
       <c r="T16">
-        <v>0.04559564988468934</v>
+        <v>0.05215199753496182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H17">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N17">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O17">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P17">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q17">
-        <v>16.30034365062221</v>
+        <v>29.21596831138334</v>
       </c>
       <c r="R17">
-        <v>16.30034365062221</v>
+        <v>262.94371480245</v>
       </c>
       <c r="S17">
-        <v>0.007825815246101677</v>
+        <v>0.01197991897297832</v>
       </c>
       <c r="T17">
-        <v>0.007825815246101677</v>
+        <v>0.01197991897297832</v>
       </c>
     </row>
   </sheetData>
